--- a/data/trans_orig/P6504-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6504-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{240843C5-501C-4995-B016-28AF7833EC48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{735C8929-8F8E-4162-AE9D-C6C38427A365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9CC099F8-7176-4324-9E42-AB4A7A0B11F3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{925D4D97-597C-4439-A9EC-54ED3EA59D7F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="226">
   <si>
     <t>Población según la exposición a bajas temperaturas durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,0%)</t>
   </si>
@@ -74,643 +74,640 @@
     <t>36,12%</t>
   </si>
   <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
     <t>23,24%</t>
   </si>
   <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
   </si>
   <si>
     <t>28,25%</t>
   </si>
   <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
   </si>
   <si>
     <t>5,62%</t>
   </si>
   <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
   </si>
   <si>
     <t>21,73%</t>
   </si>
   <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
   </si>
   <si>
     <t>4,17%</t>
   </si>
   <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
     <t>2,44%</t>
   </si>
   <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
   </si>
   <si>
     <t>14,15%</t>
   </si>
   <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
   </si>
   <si>
     <t>4,99%</t>
   </si>
   <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
+    <t>6,13%</t>
   </si>
   <si>
     <t>2,01%</t>
   </si>
   <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
+    <t>3,07%</t>
   </si>
   <si>
     <t>3,95%</t>
   </si>
   <si>
-    <t>3,26%</t>
+    <t>3,27%</t>
   </si>
   <si>
     <t>4,69%</t>
@@ -1128,7 +1125,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE5ECBC-D14B-4DFF-81E2-A5C7D213CAA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AD6F110-A6EC-4CB3-A430-95C22F87F626}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1590,13 +1587,13 @@
         <v>106512</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1611,13 +1608,13 @@
         <v>92154</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -1626,13 +1623,13 @@
         <v>7425</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>96</v>
@@ -1641,13 +1638,13 @@
         <v>99579</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1662,13 +1659,13 @@
         <v>13607</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -1677,13 +1674,13 @@
         <v>4346</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>18</v>
@@ -1692,13 +1689,13 @@
         <v>17953</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1754,7 +1751,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1766,13 +1763,13 @@
         <v>295698</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>197</v>
@@ -1781,13 +1778,13 @@
         <v>211072</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>465</v>
@@ -1796,13 +1793,13 @@
         <v>506770</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1817,13 +1814,13 @@
         <v>123565</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H15" s="7">
         <v>36</v>
@@ -1832,13 +1829,13 @@
         <v>39115</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M15" s="7">
         <v>145</v>
@@ -1847,13 +1844,13 @@
         <v>162679</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1868,13 +1865,13 @@
         <v>97000</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -1883,13 +1880,13 @@
         <v>11149</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>102</v>
@@ -1898,13 +1895,13 @@
         <v>108149</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1919,13 +1916,13 @@
         <v>42632</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -2179,10 +2176,10 @@
         <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -2191,13 +2188,13 @@
         <v>2691</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>20</v>
@@ -2206,13 +2203,13 @@
         <v>19238</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2268,7 +2265,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2280,13 +2277,13 @@
         <v>372665</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H24" s="7">
         <v>305</v>
@@ -2295,13 +2292,13 @@
         <v>323677</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M24" s="7">
         <v>689</v>
@@ -2310,13 +2307,13 @@
         <v>696341</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2331,10 +2328,10 @@
         <v>96109</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>169</v>
+        <v>106</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>170</v>
@@ -2418,7 +2415,7 @@
         <v>184</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>34</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2433,13 +2430,13 @@
         <v>20007</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>83</v>
+        <v>187</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H27" s="7">
         <v>7</v>
@@ -2448,13 +2445,13 @@
         <v>7114</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>189</v>
+        <v>41</v>
       </c>
       <c r="M27" s="7">
         <v>30</v>
@@ -2463,10 +2460,10 @@
         <v>27122</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="Q27" s="7" t="s">
         <v>192</v>
@@ -2594,7 +2591,7 @@
         <v>203</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>204</v>
+        <v>69</v>
       </c>
       <c r="H30" s="7">
         <v>133</v>
@@ -2603,13 +2600,13 @@
         <v>142417</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M30" s="7">
         <v>517</v>
@@ -2618,13 +2615,13 @@
         <v>546410</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2642,10 +2639,10 @@
         <v>210</v>
       </c>
       <c r="F31" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H31" s="7">
         <v>39</v>
@@ -2654,7 +2651,7 @@
         <v>40573</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>213</v>
@@ -2690,10 +2687,10 @@
         <v>94866</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>118</v>
+        <v>218</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>218</v>
+        <v>150</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>219</v>
@@ -2708,10 +2705,10 @@
         <v>220</v>
       </c>
       <c r="K32" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M32" s="7">
         <v>114</v>
@@ -2720,13 +2717,13 @@
         <v>115408</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2782,7 +2779,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6504-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6504-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{735C8929-8F8E-4162-AE9D-C6C38427A365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D15C5072-627B-4E32-93E3-A74D3403560E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{925D4D97-597C-4439-A9EC-54ED3EA59D7F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E255CEE9-E75E-4043-859D-4B9031E9C638}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="231">
   <si>
     <t>Población según la exposición a bajas temperaturas durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,0%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -74,28 +74,28 @@
     <t>36,12%</t>
   </si>
   <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
   </si>
   <si>
     <t>67,82%</t>
   </si>
   <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
   </si>
   <si>
     <t>45,66%</t>
   </si>
   <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>22,3%</t>
   </si>
   <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
   </si>
   <si>
     <t>21,71%</t>
   </si>
   <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
   </si>
   <si>
     <t>22,12%</t>
   </si>
   <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,28 +134,28 @@
     <t>37,93%</t>
   </si>
   <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
   </si>
   <si>
     <t>10,47%</t>
   </si>
   <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
   </si>
   <si>
     <t>29,67%</t>
   </si>
   <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -167,7 +167,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>11,38%</t>
+    <t>12,42%</t>
   </si>
   <si>
     <t>0%</t>
@@ -179,538 +179,553 @@
     <t>2,54%</t>
   </si>
   <si>
-    <t>8,36%</t>
+    <t>8,32%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>43,7%</t>
   </si>
   <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
   </si>
   <si>
     <t>69,42%</t>
   </si>
   <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
   </si>
   <si>
     <t>51,11%</t>
   </si>
   <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
   </si>
   <si>
     <t>23,88%</t>
   </si>
   <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
     <t>19,65%</t>
   </si>
   <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
     <t>3,96%</t>
   </si>
   <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
   </si>
   <si>
     <t>13,03%</t>
   </si>
   <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
   </si>
   <si>
     <t>4,99%</t>
   </si>
   <si>
-    <t>6,13%</t>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
   </si>
   <si>
     <t>2,01%</t>
   </si>
   <si>
-    <t>3,07%</t>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
   </si>
   <si>
     <t>3,95%</t>
   </si>
   <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1125,7 +1140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AD6F110-A6EC-4CB3-A430-95C22F87F626}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6771F805-93B2-41B1-B3E8-EAE47FEBA576}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1922,7 +1937,7 @@
         <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -1931,7 +1946,7 @@
         <v>6390</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>117</v>
@@ -2331,10 +2346,10 @@
         <v>169</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>106</v>
+        <v>170</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H25" s="7">
         <v>40</v>
@@ -2343,7 +2358,7 @@
         <v>42184</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>171</v>
+        <v>73</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>172</v>
@@ -2385,7 +2400,7 @@
         <v>178</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="H26" s="7">
         <v>14</v>
@@ -2394,13 +2409,13 @@
         <v>15148</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M26" s="7">
         <v>81</v>
@@ -2409,13 +2424,13 @@
         <v>79779</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2430,13 +2445,13 @@
         <v>20007</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H27" s="7">
         <v>7</v>
@@ -2445,13 +2460,13 @@
         <v>7114</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="M27" s="7">
         <v>30</v>
@@ -2463,10 +2478,10 @@
         <v>191</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2534,13 +2549,13 @@
         <v>1061366</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H29" s="7">
         <v>788</v>
@@ -2549,13 +2564,13 @@
         <v>820836</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M29" s="7">
         <v>1803</v>
@@ -2564,13 +2579,13 @@
         <v>1882201</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2585,13 +2600,13 @@
         <v>403993</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>69</v>
+        <v>205</v>
       </c>
       <c r="H30" s="7">
         <v>133</v>
@@ -2600,13 +2615,13 @@
         <v>142417</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M30" s="7">
         <v>517</v>
@@ -2615,13 +2630,13 @@
         <v>546410</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2636,13 +2651,13 @@
         <v>340687</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>141</v>
+        <v>213</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H31" s="7">
         <v>39</v>
@@ -2651,13 +2666,13 @@
         <v>40573</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M31" s="7">
         <v>366</v>
@@ -2666,13 +2681,13 @@
         <v>381260</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,13 +2702,13 @@
         <v>94866</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>150</v>
+        <v>222</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H32" s="7">
         <v>20</v>
@@ -2702,13 +2717,13 @@
         <v>20542</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>153</v>
+        <v>225</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="M32" s="7">
         <v>114</v>
@@ -2717,13 +2732,13 @@
         <v>115408</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2779,7 +2794,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6504-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6504-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D15C5072-627B-4E32-93E3-A74D3403560E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{451F39C6-2A46-4C36-9AC9-B398DE75049F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E255CEE9-E75E-4043-859D-4B9031E9C638}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DA922F44-4514-4CF3-9C1C-3BE80D181A54}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="227">
   <si>
     <t>Población según la exposición a bajas temperaturas durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,0%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>36,12%</t>
   </si>
   <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
   </si>
   <si>
     <t>67,82%</t>
   </si>
   <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
   </si>
   <si>
     <t>45,66%</t>
   </si>
   <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>22,3%</t>
   </si>
   <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
   </si>
   <si>
     <t>21,71%</t>
   </si>
   <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
   </si>
   <si>
     <t>22,12%</t>
   </si>
   <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,28 +134,28 @@
     <t>37,93%</t>
   </si>
   <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
   </si>
   <si>
     <t>10,47%</t>
   </si>
   <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
   </si>
   <si>
     <t>29,67%</t>
   </si>
   <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -167,7 +167,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>12,42%</t>
+    <t>11,45%</t>
   </si>
   <si>
     <t>0%</t>
@@ -179,7 +179,7 @@
     <t>2,54%</t>
   </si>
   <si>
-    <t>8,32%</t>
+    <t>9,95%</t>
   </si>
   <si>
     <t>100%</t>
@@ -191,541 +191,529 @@
     <t>43,7%</t>
   </si>
   <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
   </si>
   <si>
     <t>69,42%</t>
   </si>
   <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
   </si>
   <si>
     <t>51,11%</t>
   </si>
   <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
   </si>
   <si>
     <t>23,88%</t>
   </si>
   <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
   </si>
   <si>
     <t>21,66%</t>
   </si>
   <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
     <t>14,4%</t>
   </si>
   <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
   </si>
   <si>
     <t>2,01%</t>
   </si>
   <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
   </si>
   <si>
     <t>3,95%</t>
   </si>
   <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1140,7 +1128,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6771F805-93B2-41B1-B3E8-EAE47FEBA576}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1759E253-1BBE-4CFD-BB69-781A3EFE7E22}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1602,13 +1590,13 @@
         <v>106512</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1623,13 +1611,13 @@
         <v>92154</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -1638,13 +1626,13 @@
         <v>7425</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>96</v>
@@ -1653,13 +1641,13 @@
         <v>99579</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1674,13 +1662,13 @@
         <v>13607</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -1689,13 +1677,13 @@
         <v>4346</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>18</v>
@@ -1704,13 +1692,13 @@
         <v>17953</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1766,7 +1754,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1778,13 +1766,13 @@
         <v>295698</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>197</v>
@@ -1793,13 +1781,13 @@
         <v>211072</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>465</v>
@@ -1808,13 +1796,13 @@
         <v>506770</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1829,13 +1817,13 @@
         <v>123565</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H15" s="7">
         <v>36</v>
@@ -1844,13 +1832,13 @@
         <v>39115</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M15" s="7">
         <v>145</v>
@@ -1859,13 +1847,13 @@
         <v>162679</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1880,13 +1868,13 @@
         <v>97000</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -1895,13 +1883,13 @@
         <v>11149</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>102</v>
@@ -1910,13 +1898,13 @@
         <v>108149</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1931,13 +1919,13 @@
         <v>42632</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -1946,7 +1934,7 @@
         <v>6390</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>117</v>
@@ -2191,10 +2179,10 @@
         <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -2203,13 +2191,13 @@
         <v>2691</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>20</v>
@@ -2218,13 +2206,13 @@
         <v>19238</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2280,7 +2268,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2292,13 +2280,13 @@
         <v>372665</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H24" s="7">
         <v>305</v>
@@ -2307,13 +2295,13 @@
         <v>323677</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M24" s="7">
         <v>689</v>
@@ -2322,13 +2310,13 @@
         <v>696341</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2343,13 +2331,13 @@
         <v>96109</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H25" s="7">
         <v>40</v>
@@ -2358,7 +2346,7 @@
         <v>42184</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>172</v>
@@ -2400,7 +2388,7 @@
         <v>178</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="H26" s="7">
         <v>14</v>
@@ -2409,13 +2397,13 @@
         <v>15148</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M26" s="7">
         <v>81</v>
@@ -2424,13 +2412,13 @@
         <v>79779</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>184</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2448,10 +2436,10 @@
         <v>185</v>
       </c>
       <c r="F27" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H27" s="7">
         <v>7</v>
@@ -2460,13 +2448,13 @@
         <v>7114</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M27" s="7">
         <v>30</v>
@@ -2475,13 +2463,13 @@
         <v>27122</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2549,13 +2537,13 @@
         <v>1061366</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H29" s="7">
         <v>788</v>
@@ -2564,13 +2552,13 @@
         <v>820836</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M29" s="7">
         <v>1803</v>
@@ -2579,13 +2567,13 @@
         <v>1882201</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2600,13 +2588,13 @@
         <v>403993</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H30" s="7">
         <v>133</v>
@@ -2615,13 +2603,13 @@
         <v>142417</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M30" s="7">
         <v>517</v>
@@ -2630,13 +2618,13 @@
         <v>546410</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="P30" s="7" t="s">
-        <v>210</v>
-      </c>
       <c r="Q30" s="7" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2651,13 +2639,13 @@
         <v>340687</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H31" s="7">
         <v>39</v>
@@ -2666,13 +2654,13 @@
         <v>40573</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M31" s="7">
         <v>366</v>
@@ -2681,13 +2669,13 @@
         <v>381260</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2702,13 +2690,13 @@
         <v>94866</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>221</v>
+        <v>118</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H32" s="7">
         <v>20</v>
@@ -2717,13 +2705,13 @@
         <v>20542</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="M32" s="7">
         <v>114</v>
@@ -2732,13 +2720,13 @@
         <v>115408</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2794,7 +2782,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6504-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6504-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{451F39C6-2A46-4C36-9AC9-B398DE75049F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D99CAC1-5375-4F2A-BAEF-BF41C7FFB6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DA922F44-4514-4CF3-9C1C-3BE80D181A54}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A25BA0DD-7E01-4D8A-AE62-D578E2EB98B4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="196">
   <si>
     <t>Población según la exposición a bajas temperaturas durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,0%)</t>
   </si>
@@ -65,535 +65,442 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
   </si>
   <si>
     <t>Algunas veces</t>
   </si>
   <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
   </si>
   <si>
     <t>Muchas veces</t>
   </si>
   <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
   </si>
   <si>
     <t>10,47%</t>
   </si>
   <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
+    <t>3,62%</t>
   </si>
   <si>
     <t>2,36%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
   </si>
   <si>
     <t>5,32%</t>
@@ -1128,8 +1035,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1759E253-1BBE-4CFD-BB69-781A3EFE7E22}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3278899B-AEAA-4730-930C-6AEAE9354922}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1246,10 +1153,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="D4" s="7">
-        <v>20563</v>
+        <v>163147</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1261,10 +1168,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="I4" s="7">
-        <v>16612</v>
+        <v>108256</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1276,10 +1183,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>36</v>
+        <v>263</v>
       </c>
       <c r="N4" s="7">
-        <v>37175</v>
+        <v>271403</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1297,10 +1204,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="D5" s="7">
-        <v>12697</v>
+        <v>90611</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1312,10 +1219,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="I5" s="7">
-        <v>5316</v>
+        <v>33914</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1327,10 +1234,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="N5" s="7">
-        <v>18013</v>
+        <v>124525</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1348,10 +1255,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="D6" s="7">
-        <v>21594</v>
+        <v>113749</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1363,10 +1270,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I6" s="7">
-        <v>2564</v>
+        <v>9989</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1378,10 +1285,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="N6" s="7">
-        <v>24159</v>
+        <v>123738</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1399,10 +1306,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D7" s="7">
-        <v>2072</v>
+        <v>15679</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1414,34 +1321,34 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>4346</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="N7" s="7">
-        <v>2072</v>
+        <v>20025</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1450,102 +1357,102 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>50</v>
+        <v>366</v>
       </c>
       <c r="D8" s="7">
-        <v>56926</v>
+        <v>383186</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="I8" s="7">
-        <v>24493</v>
+        <v>156505</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
-        <v>77</v>
+        <v>519</v>
       </c>
       <c r="N8" s="7">
-        <v>81419</v>
+        <v>539691</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>138</v>
+        <v>268</v>
       </c>
       <c r="D9" s="7">
-        <v>142584</v>
+        <v>295698</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="I9" s="7">
-        <v>91644</v>
+        <v>211072</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
-        <v>227</v>
+        <v>465</v>
       </c>
       <c r="N9" s="7">
-        <v>234227</v>
+        <v>506770</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1554,49 +1461,49 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="D10" s="7">
-        <v>77915</v>
+        <v>123565</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I10" s="7">
-        <v>28598</v>
+        <v>39115</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="N10" s="7">
-        <v>106512</v>
+        <v>162679</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1605,49 +1512,49 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D11" s="7">
-        <v>92154</v>
+        <v>97000</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I11" s="7">
-        <v>7425</v>
+        <v>11149</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="N11" s="7">
-        <v>99579</v>
+        <v>108149</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1656,49 +1563,49 @@
         <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D12" s="7">
-        <v>13607</v>
+        <v>42632</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I12" s="7">
-        <v>4346</v>
+        <v>6390</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="N12" s="7">
-        <v>17953</v>
+        <v>49023</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1707,102 +1614,102 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>316</v>
+        <v>507</v>
       </c>
       <c r="D13" s="7">
-        <v>326260</v>
+        <v>558895</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
-        <v>126</v>
+        <v>249</v>
       </c>
       <c r="I13" s="7">
-        <v>132012</v>
+        <v>267726</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
-        <v>442</v>
+        <v>756</v>
       </c>
       <c r="N13" s="7">
-        <v>458272</v>
+        <v>826621</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>268</v>
+        <v>207</v>
       </c>
       <c r="D14" s="7">
-        <v>295698</v>
+        <v>229855</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="I14" s="7">
-        <v>211072</v>
+        <v>177831</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
-        <v>465</v>
+        <v>386</v>
       </c>
       <c r="N14" s="7">
-        <v>506770</v>
+        <v>407686</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1811,49 +1718,49 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="D15" s="7">
-        <v>123565</v>
+        <v>93708</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="I15" s="7">
-        <v>39115</v>
+        <v>27205</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="N15" s="7">
-        <v>162679</v>
+        <v>120913</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1862,49 +1769,49 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="D16" s="7">
-        <v>97000</v>
+        <v>65308</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>11149</v>
+        <v>4287</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="N16" s="7">
-        <v>108149</v>
+        <v>69595</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1913,49 +1820,49 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D17" s="7">
-        <v>42632</v>
+        <v>16547</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>6390</v>
+        <v>2691</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="N17" s="7">
-        <v>49023</v>
+        <v>19238</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1964,102 +1871,102 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>507</v>
+        <v>374</v>
       </c>
       <c r="D18" s="7">
-        <v>558895</v>
+        <v>405418</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
-        <v>249</v>
+        <v>212</v>
       </c>
       <c r="I18" s="7">
-        <v>267726</v>
+        <v>212014</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
-        <v>756</v>
+        <v>586</v>
       </c>
       <c r="N18" s="7">
-        <v>826621</v>
+        <v>617432</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>207</v>
+        <v>384</v>
       </c>
       <c r="D19" s="7">
-        <v>229855</v>
+        <v>372665</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H19" s="7">
-        <v>179</v>
+        <v>305</v>
       </c>
       <c r="I19" s="7">
-        <v>177831</v>
+        <v>323677</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
-        <v>386</v>
+        <v>689</v>
       </c>
       <c r="N19" s="7">
-        <v>407686</v>
+        <v>696342</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2068,49 +1975,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D20" s="7">
-        <v>93708</v>
+        <v>96109</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="I20" s="7">
-        <v>27205</v>
+        <v>42184</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M20" s="7">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="N20" s="7">
-        <v>120913</v>
+        <v>138293</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2119,49 +2026,49 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D21" s="7">
-        <v>65308</v>
+        <v>64631</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H21" s="7">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="I21" s="7">
-        <v>4287</v>
+        <v>15148</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M21" s="7">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="N21" s="7">
-        <v>69595</v>
+        <v>79779</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2170,49 +2077,49 @@
         <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D22" s="7">
-        <v>16547</v>
+        <v>20007</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>46</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H22" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I22" s="7">
-        <v>2691</v>
+        <v>7114</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M22" s="7">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N22" s="7">
-        <v>19238</v>
+        <v>27122</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2221,102 +2128,102 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>374</v>
+        <v>573</v>
       </c>
       <c r="D23" s="7">
-        <v>405418</v>
+        <v>553412</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
-        <v>212</v>
+        <v>366</v>
       </c>
       <c r="I23" s="7">
-        <v>212014</v>
+        <v>388123</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
-        <v>586</v>
+        <v>939</v>
       </c>
       <c r="N23" s="7">
-        <v>617432</v>
+        <v>941535</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>384</v>
+        <v>1015</v>
       </c>
       <c r="D24" s="7">
-        <v>372665</v>
+        <v>1061366</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H24" s="7">
-        <v>305</v>
+        <v>788</v>
       </c>
       <c r="I24" s="7">
-        <v>323677</v>
+        <v>820836</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M24" s="7">
-        <v>689</v>
+        <v>1803</v>
       </c>
       <c r="N24" s="7">
-        <v>696341</v>
+        <v>1882201</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2325,49 +2232,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>99</v>
+        <v>384</v>
       </c>
       <c r="D25" s="7">
-        <v>96109</v>
+        <v>403993</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H25" s="7">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="I25" s="7">
-        <v>42184</v>
+        <v>142417</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M25" s="7">
-        <v>139</v>
+        <v>517</v>
       </c>
       <c r="N25" s="7">
-        <v>138292</v>
+        <v>546410</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>176</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2376,49 +2283,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>67</v>
+        <v>327</v>
       </c>
       <c r="D26" s="7">
-        <v>64631</v>
+        <v>340687</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H26" s="7">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="I26" s="7">
-        <v>15148</v>
+        <v>40573</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M26" s="7">
-        <v>81</v>
+        <v>366</v>
       </c>
       <c r="N26" s="7">
-        <v>79779</v>
+        <v>381260</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>34</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2427,49 +2334,49 @@
         <v>40</v>
       </c>
       <c r="C27" s="7">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="D27" s="7">
-        <v>20007</v>
+        <v>94866</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>185</v>
+        <v>84</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>83</v>
+        <v>187</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H27" s="7">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I27" s="7">
-        <v>7114</v>
+        <v>20542</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M27" s="7">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="N27" s="7">
-        <v>27122</v>
+        <v>115408</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2478,319 +2385,61 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>573</v>
+        <v>1820</v>
       </c>
       <c r="D28" s="7">
-        <v>553412</v>
+        <v>1900911</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H28" s="7">
-        <v>366</v>
+        <v>980</v>
       </c>
       <c r="I28" s="7">
-        <v>388123</v>
+        <v>1024368</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M28" s="7">
-        <v>939</v>
+        <v>2800</v>
       </c>
       <c r="N28" s="7">
-        <v>941534</v>
+        <v>2925279</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="7">
-        <v>1015</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1061366</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G29" s="7" t="s">
+      <c r="A29" t="s">
         <v>195</v>
       </c>
-      <c r="H29" s="7">
-        <v>788</v>
-      </c>
-      <c r="I29" s="7">
-        <v>820836</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="M29" s="7">
-        <v>1803</v>
-      </c>
-      <c r="N29" s="7">
-        <v>1882201</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="7">
-        <v>384</v>
-      </c>
-      <c r="D30" s="7">
-        <v>403993</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="H30" s="7">
-        <v>133</v>
-      </c>
-      <c r="I30" s="7">
-        <v>142417</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="M30" s="7">
-        <v>517</v>
-      </c>
-      <c r="N30" s="7">
-        <v>546410</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="7">
-        <v>327</v>
-      </c>
-      <c r="D31" s="7">
-        <v>340687</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H31" s="7">
-        <v>39</v>
-      </c>
-      <c r="I31" s="7">
-        <v>40573</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="M31" s="7">
-        <v>366</v>
-      </c>
-      <c r="N31" s="7">
-        <v>381260</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="7">
-        <v>94</v>
-      </c>
-      <c r="D32" s="7">
-        <v>94866</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H32" s="7">
-        <v>20</v>
-      </c>
-      <c r="I32" s="7">
-        <v>20542</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="M32" s="7">
-        <v>114</v>
-      </c>
-      <c r="N32" s="7">
-        <v>115408</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>1820</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1900911</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H33" s="7">
-        <v>980</v>
-      </c>
-      <c r="I33" s="7">
-        <v>1024368</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M33" s="7">
-        <v>2800</v>
-      </c>
-      <c r="N33" s="7">
-        <v>2925279</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>226</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
